--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2522.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2522.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.563328110969727</v>
+        <v>2.306533813476562</v>
       </c>
       <c r="B1">
-        <v>3.567522926061304</v>
+        <v>2.525996923446655</v>
       </c>
       <c r="C1">
-        <v>3.630001067791491</v>
+        <v>2.561086416244507</v>
       </c>
       <c r="D1">
-        <v>1.88879930878136</v>
+        <v>3.251309633255005</v>
       </c>
       <c r="E1">
-        <v>1.916399932665494</v>
+        <v>2.301841020584106</v>
       </c>
     </row>
   </sheetData>
